--- a/data-raw/variable_explanation.xlsx
+++ b/data-raw/variable_explanation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535"/>
   </bookViews>
   <sheets>
     <sheet name="nflfastR2.0 Output pbp" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="700">
   <si>
     <t>play_id</t>
   </si>
@@ -2121,6 +2121,12 @@
   </si>
   <si>
     <t>Renamed Variables</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>Binary indicator if the play was a special teams play.</t>
   </si>
 </sst>
 </file>
@@ -2239,7 +2245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2294,6 +2300,13 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2595,10 +2608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D383"/>
+  <dimension ref="B2:D387"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D323" sqref="D3:D323"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B292" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D319" sqref="D319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5708,7 +5721,7 @@
         <v>479</v>
       </c>
       <c r="D260" t="str">
-        <f t="shared" ref="D260:D323" si="4">CONCATENATE("#' \item{",B260,"}{",C260,"}")</f>
+        <f t="shared" ref="D260:D327" si="4">CONCATENATE("#' \item{",B260,"}{",C260,"}")</f>
         <v>#' \item{defensive_two_point_conv}{Binary indicator whether or not the defense successfully scored on the two point conversion.}</v>
       </c>
     </row>
@@ -6300,629 +6313,656 @@
         <v>#' \item{game_stadium}{Name of the stadium the game was played in. (Source: Pro-Football-Reference)}</v>
       </c>
     </row>
-    <row r="310" spans="2:4" ht="17.25" thickTop="1">
-      <c r="B310" s="1" t="s">
+    <row r="310" spans="2:4" s="22" customFormat="1" ht="17.25" thickTop="1">
+      <c r="B310" s="20"/>
+      <c r="C310" s="21"/>
+      <c r="D310"/>
+    </row>
+    <row r="311" spans="2:4" s="22" customFormat="1" ht="16.5">
+      <c r="B311" s="20"/>
+      <c r="C311" s="21"/>
+      <c r="D311"/>
+    </row>
+    <row r="312" spans="2:4" s="22" customFormat="1" ht="16.5">
+      <c r="B312" s="20"/>
+      <c r="C312" s="21"/>
+      <c r="D312"/>
+    </row>
+    <row r="313" spans="2:4" ht="16.5">
+      <c r="B313" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C310" s="2" t="s">
+      <c r="C313" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="D310" t="str">
+      <c r="D313" t="str">
         <f t="shared" si="4"/>
         <v>#' \item{success}{Binary indicator wheter epa &gt; 0 in the given play. }</v>
       </c>
     </row>
-    <row r="311" spans="2:4" ht="16.5">
-      <c r="B311" s="1" t="s">
+    <row r="314" spans="2:4" ht="16.5">
+      <c r="B314" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="C311" s="2" t="s">
+      <c r="C314" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="D311" t="str">
+      <c r="D314" t="str">
         <f t="shared" si="4"/>
         <v>#' \item{passer}{Name of the dropback player (scrambles included) including plays with penalties.}</v>
       </c>
     </row>
-    <row r="312" spans="2:4" ht="16.5">
-      <c r="B312" s="1" t="s">
+    <row r="315" spans="2:4" ht="16.5">
+      <c r="B315" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="C312" s="2" t="s">
+      <c r="C315" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="D312" t="str">
+      <c r="D315" t="str">
         <f t="shared" si="4"/>
         <v>#' \item{rusher}{Name of the rusher (no scrambles) including plays with penalties.}</v>
       </c>
     </row>
-    <row r="313" spans="2:4" ht="16.5">
-      <c r="B313" s="1" t="s">
+    <row r="316" spans="2:4" ht="16.5">
+      <c r="B316" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="C313" s="2" t="s">
+      <c r="C316" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="D313" t="str">
+      <c r="D316" t="str">
         <f t="shared" si="4"/>
         <v>#' \item{receiver}{Name of the receiver including plays with penalties.}</v>
       </c>
     </row>
-    <row r="314" spans="2:4" ht="16.5">
-      <c r="B314" s="1" t="s">
+    <row r="317" spans="2:4" ht="16.5">
+      <c r="B317" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="C314" s="2" t="s">
+      <c r="C317" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="D314" t="str">
+      <c r="D317" t="str">
         <f t="shared" si="4"/>
         <v>#' \item{pass}{Binary indicator if the play was a pass play (sacks and scrambles included).}</v>
       </c>
     </row>
-    <row r="315" spans="2:4" ht="16.5">
-      <c r="B315" s="1" t="s">
+    <row r="318" spans="2:4" ht="16.5">
+      <c r="B318" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="C315" s="2" t="s">
+      <c r="C318" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="D315" t="str">
+      <c r="D318" t="str">
         <f t="shared" si="4"/>
         <v>#' \item{rush}{Binary indicator if the play was a rushing play.}</v>
       </c>
     </row>
-    <row r="316" spans="2:4" ht="16.5">
-      <c r="B316" s="1" t="s">
+    <row r="319" spans="2:4" ht="16.5">
+      <c r="B319" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="D319" t="str">
+        <f t="shared" si="4"/>
+        <v>#' \item{special}{Binary indicator if the play was a special teams play.}</v>
+      </c>
+    </row>
+    <row r="320" spans="2:4" ht="16.5">
+      <c r="B320" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="C316" s="2" t="s">
+      <c r="C320" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="D316" t="str">
+      <c r="D320" t="str">
         <f t="shared" si="4"/>
         <v>#' \item{first_down}{Binary indicator if the play ended in a first down.}</v>
       </c>
     </row>
-    <row r="317" spans="2:4" ht="16.5">
-      <c r="B317" s="1" t="s">
+    <row r="321" spans="2:4" ht="16.5">
+      <c r="B321" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="C317" s="2" t="s">
+      <c r="C321" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="D317" t="str">
+      <c r="D321" t="str">
         <f t="shared" si="4"/>
         <v>#' \item{play}{Binary indicator: 1 if the play was a 'normal' play (including penalties), 0 otherwise.}</v>
       </c>
     </row>
-    <row r="318" spans="2:4" ht="16.5">
-      <c r="B318" s="1" t="s">
+    <row r="322" spans="2:4" ht="16.5">
+      <c r="B322" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="C318" s="2" t="s">
+      <c r="C322" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="D318" t="str">
+      <c r="D322" t="str">
         <f t="shared" si="4"/>
         <v>#' \item{passer_id}{ID of the player in the 'passer' column (NOTE: ids vary pre and post 2011)}</v>
       </c>
     </row>
-    <row r="319" spans="2:4" ht="16.5">
-      <c r="B319" s="1" t="s">
+    <row r="323" spans="2:4" ht="16.5">
+      <c r="B323" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="C319" s="2" t="s">
+      <c r="C323" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="D319" t="str">
+      <c r="D323" t="str">
         <f t="shared" si="4"/>
         <v>#' \item{rusher_id}{ID of the player in the 'rusher' column (NOTE: ids vary pre and post 2011)}</v>
       </c>
     </row>
-    <row r="320" spans="2:4" ht="16.5">
-      <c r="B320" s="1" t="s">
+    <row r="324" spans="2:4" ht="16.5">
+      <c r="B324" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="C320" s="2" t="s">
+      <c r="C324" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="D320" t="str">
+      <c r="D324" t="str">
         <f t="shared" si="4"/>
         <v>#' \item{receiver_id}{ID of the player in the 'receiver' column (NOTE: ids vary pre and post 2011)}</v>
       </c>
     </row>
-    <row r="321" spans="2:4" ht="16.5">
-      <c r="B321" s="1" t="s">
+    <row r="325" spans="2:4" ht="16.5">
+      <c r="B325" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="C321" s="2" t="s">
+      <c r="C325" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="D321" t="str">
+      <c r="D325" t="str">
         <f t="shared" si="4"/>
         <v>#' \item{name}{Name of the 'passer' if it is not 'NA', or name of the 'rusher' otherwise.}</v>
       </c>
     </row>
-    <row r="322" spans="2:4" ht="16.5">
-      <c r="B322" s="1" t="s">
+    <row r="326" spans="2:4" ht="16.5">
+      <c r="B326" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="C322" s="2" t="s">
+      <c r="C326" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="D322" t="str">
+      <c r="D326" t="str">
         <f t="shared" si="4"/>
         <v>#' \item{id}{ID of the player in the 'name' column.}</v>
       </c>
     </row>
-    <row r="323" spans="2:4" ht="16.5">
-      <c r="B323" s="1" t="s">
+    <row r="327" spans="2:4" ht="16.5">
+      <c r="B327" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="C323" s="2" t="s">
+      <c r="C327" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="D323" t="str">
+      <c r="D327" t="str">
         <f t="shared" si="4"/>
         <v>#' \item{qb_epa}{Gives QB credit for EPA for up to the point where a receiver lost a fumble after a completed catch and makes EPA work more like passing yards on plays with fumbles.}</v>
       </c>
     </row>
-    <row r="325" spans="2:4" s="8" customFormat="1" ht="16.5" thickBot="1">
-      <c r="B325" s="14" t="s">
+    <row r="329" spans="2:4" s="8" customFormat="1" ht="16.5" thickBot="1">
+      <c r="B329" s="14" t="s">
         <v>655</v>
       </c>
-      <c r="C325" s="14"/>
-    </row>
-    <row r="326" spans="2:4" s="8" customFormat="1" ht="17.25" thickTop="1">
-      <c r="B326" s="11" t="s">
+      <c r="C329" s="14"/>
+    </row>
+    <row r="330" spans="2:4" s="8" customFormat="1" ht="17.25" thickTop="1">
+      <c r="B330" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="C326" s="12" t="s">
+      <c r="C330" s="12" t="s">
         <v>526</v>
-      </c>
-    </row>
-    <row r="327" spans="2:4" s="8" customFormat="1" ht="16.5">
-      <c r="B327" s="11" t="s">
-        <v>520</v>
-      </c>
-      <c r="C327" s="12" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="328" spans="2:4" s="8" customFormat="1" ht="16.5">
-      <c r="B328" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="C328" s="12" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="329" spans="2:4" s="8" customFormat="1" ht="16.5">
-      <c r="B329" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="C329" s="12" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="330" spans="2:4" s="8" customFormat="1" ht="16.5">
-      <c r="B330" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="C330" s="12" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="331" spans="2:4" s="8" customFormat="1" ht="16.5">
       <c r="B331" s="11" t="s">
-        <v>495</v>
+        <v>520</v>
       </c>
       <c r="C331" s="12" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="332" spans="2:4" s="8" customFormat="1" ht="16.5">
       <c r="B332" s="11" t="s">
-        <v>519</v>
+        <v>492</v>
       </c>
       <c r="C332" s="12" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="333" spans="2:4" s="8" customFormat="1" ht="16.5">
       <c r="B333" s="11" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="C333" s="12" t="s">
-        <v>544</v>
+        <v>512</v>
       </c>
     </row>
     <row r="334" spans="2:4" s="8" customFormat="1" ht="16.5">
       <c r="B334" s="11" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="C334" s="12" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
     </row>
     <row r="335" spans="2:4" s="8" customFormat="1" ht="16.5">
       <c r="B335" s="11" t="s">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="C335" s="12" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="336" spans="2:4" s="8" customFormat="1" ht="33">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="336" spans="2:4" s="8" customFormat="1" ht="16.5">
       <c r="B336" s="11" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="C336" s="12" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
     </row>
     <row r="337" spans="2:3" s="8" customFormat="1" ht="16.5">
       <c r="B337" s="11" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="C337" s="12" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="338" spans="2:3" s="8" customFormat="1" ht="33">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="338" spans="2:3" s="8" customFormat="1" ht="16.5">
       <c r="B338" s="11" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C338" s="12" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="339" spans="2:3" s="8" customFormat="1" ht="16.5">
       <c r="B339" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="C339" s="12" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="340" spans="2:3" s="8" customFormat="1" ht="33">
+      <c r="B340" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="C340" s="12" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="341" spans="2:3" s="8" customFormat="1" ht="16.5">
+      <c r="B341" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="C341" s="12" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="342" spans="2:3" s="8" customFormat="1" ht="33">
+      <c r="B342" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="C342" s="12" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="343" spans="2:3" s="8" customFormat="1" ht="16.5">
+      <c r="B343" s="11" t="s">
         <v>511</v>
       </c>
-      <c r="C339" s="12" t="s">
+      <c r="C343" s="12" t="s">
         <v>551</v>
-      </c>
-    </row>
-    <row r="340" spans="2:3" s="8" customFormat="1" ht="16.5">
-      <c r="B340" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="C340" s="12" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="341" spans="2:3" s="8" customFormat="1">
-      <c r="B341" s="11"/>
-      <c r="C341" s="13"/>
-    </row>
-    <row r="342" spans="2:3" s="8" customFormat="1" ht="16.5" thickBot="1">
-      <c r="B342" s="14" t="s">
-        <v>656</v>
-      </c>
-      <c r="C342" s="14"/>
-    </row>
-    <row r="343" spans="2:3" s="8" customFormat="1" ht="17.25" thickTop="1">
-      <c r="B343" s="11" t="s">
-        <v>639</v>
-      </c>
-      <c r="C343" s="12" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="344" spans="2:3" s="8" customFormat="1" ht="16.5">
       <c r="B344" s="11" t="s">
-        <v>640</v>
+        <v>510</v>
       </c>
       <c r="C344" s="12" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="345" spans="2:3" s="8" customFormat="1" ht="16.5">
-      <c r="B345" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="C345" s="12" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="346" spans="2:3" s="8" customFormat="1" ht="16.5">
-      <c r="B346" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="C346" s="12" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="347" spans="2:3" s="8" customFormat="1" ht="16.5">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="345" spans="2:3" s="8" customFormat="1">
+      <c r="B345" s="11"/>
+      <c r="C345" s="13"/>
+    </row>
+    <row r="346" spans="2:3" s="8" customFormat="1" ht="16.5" thickBot="1">
+      <c r="B346" s="14" t="s">
+        <v>656</v>
+      </c>
+      <c r="C346" s="14"/>
+    </row>
+    <row r="347" spans="2:3" s="8" customFormat="1" ht="17.25" thickTop="1">
       <c r="B347" s="11" t="s">
-        <v>561</v>
+        <v>639</v>
       </c>
       <c r="C347" s="12" t="s">
-        <v>618</v>
+        <v>641</v>
       </c>
     </row>
     <row r="348" spans="2:3" s="8" customFormat="1" ht="16.5">
       <c r="B348" s="11" t="s">
-        <v>562</v>
+        <v>640</v>
       </c>
       <c r="C348" s="12" t="s">
-        <v>619</v>
+        <v>642</v>
       </c>
     </row>
     <row r="349" spans="2:3" s="8" customFormat="1" ht="16.5">
       <c r="B349" s="11" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C349" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
     </row>
     <row r="350" spans="2:3" s="8" customFormat="1" ht="16.5">
       <c r="B350" s="11" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C350" s="12" t="s">
-        <v>660</v>
+        <v>617</v>
       </c>
     </row>
     <row r="351" spans="2:3" s="8" customFormat="1" ht="16.5">
       <c r="B351" s="11" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C351" s="12" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="352" spans="2:3" s="8" customFormat="1" ht="16.5">
       <c r="B352" s="11" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C352" s="12" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="353" spans="2:3" s="8" customFormat="1" ht="16.5">
       <c r="B353" s="11" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C353" s="12" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
     </row>
     <row r="354" spans="2:3" s="8" customFormat="1" ht="16.5">
       <c r="B354" s="11" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C354" s="12" t="s">
-        <v>623</v>
+        <v>660</v>
       </c>
     </row>
     <row r="355" spans="2:3" s="8" customFormat="1" ht="16.5">
       <c r="B355" s="11" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="C355" s="12" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="356" spans="2:3" s="8" customFormat="1" ht="16.5">
       <c r="B356" s="11" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="C356" s="12" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="357" spans="2:3" s="8" customFormat="1" ht="16.5">
       <c r="B357" s="11" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="C357" s="12" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
     </row>
     <row r="358" spans="2:3" s="8" customFormat="1" ht="16.5">
       <c r="B358" s="11" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="C358" s="12" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
     </row>
     <row r="359" spans="2:3" s="8" customFormat="1" ht="16.5">
       <c r="B359" s="11" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C359" s="12" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
     </row>
     <row r="360" spans="2:3" s="8" customFormat="1" ht="16.5">
       <c r="B360" s="11" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C360" s="12" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
     </row>
     <row r="361" spans="2:3" s="8" customFormat="1" ht="16.5">
       <c r="B361" s="11" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C361" s="12" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="362" spans="2:3" s="8" customFormat="1" ht="33">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="362" spans="2:3" s="8" customFormat="1" ht="16.5">
       <c r="B362" s="11" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C362" s="12" t="s">
-        <v>648</v>
+        <v>611</v>
       </c>
     </row>
     <row r="363" spans="2:3" s="8" customFormat="1" ht="16.5">
       <c r="B363" s="11" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C363" s="12" t="s">
-        <v>649</v>
+        <v>612</v>
       </c>
     </row>
     <row r="364" spans="2:3" s="8" customFormat="1" ht="16.5">
       <c r="B364" s="11" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C364" s="12" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="365" spans="2:3" s="8" customFormat="1" ht="33">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="365" spans="2:3" s="8" customFormat="1" ht="16.5">
       <c r="B365" s="11" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C365" s="12" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="366" spans="2:3" s="8" customFormat="1" ht="16.5">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="366" spans="2:3" s="8" customFormat="1" ht="33">
       <c r="B366" s="11" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C366" s="12" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="367" spans="2:3" s="8" customFormat="1" ht="16.5">
       <c r="B367" s="11" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C367" s="12" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="368" spans="2:3" s="8" customFormat="1" ht="16.5">
       <c r="B368" s="11" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C368" s="12" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="369" spans="2:3" s="8" customFormat="1" ht="16.5">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="369" spans="2:3" s="8" customFormat="1" ht="33">
       <c r="B369" s="11" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C369" s="12" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
     </row>
     <row r="370" spans="2:3" s="8" customFormat="1" ht="16.5">
       <c r="B370" s="11" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C370" s="12" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="371" spans="2:3" s="8" customFormat="1" ht="16.5">
       <c r="B371" s="11" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C371" s="12" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
     </row>
     <row r="372" spans="2:3" s="8" customFormat="1" ht="16.5">
       <c r="B372" s="11" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C372" s="12" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="373" spans="2:3" s="8" customFormat="1">
-      <c r="B373" s="13"/>
-      <c r="C373" s="13"/>
-    </row>
-    <row r="374" spans="2:3" s="8" customFormat="1" ht="16.5" thickBot="1">
-      <c r="B374" s="14" t="s">
-        <v>657</v>
-      </c>
-      <c r="C374" s="14"/>
-    </row>
-    <row r="375" spans="2:3" s="8" customFormat="1" ht="30.75" thickTop="1">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="373" spans="2:3" s="8" customFormat="1" ht="16.5">
+      <c r="B373" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="C373" s="12" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="374" spans="2:3" s="8" customFormat="1" ht="16.5">
+      <c r="B374" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="C374" s="12" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="375" spans="2:3" s="8" customFormat="1" ht="16.5">
       <c r="B375" s="11" t="s">
-        <v>658</v>
+        <v>591</v>
       </c>
       <c r="C375" s="12" t="s">
-        <v>527</v>
+        <v>645</v>
       </c>
     </row>
     <row r="376" spans="2:3" s="8" customFormat="1" ht="16.5">
       <c r="B376" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="C376" s="12" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="377" spans="2:3" s="8" customFormat="1">
+      <c r="B377" s="13"/>
+      <c r="C377" s="13"/>
+    </row>
+    <row r="378" spans="2:3" s="8" customFormat="1" ht="16.5" thickBot="1">
+      <c r="B378" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="C378" s="14"/>
+    </row>
+    <row r="379" spans="2:3" s="8" customFormat="1" ht="30.75" thickTop="1">
+      <c r="B379" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="C379" s="12" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="380" spans="2:3" s="8" customFormat="1" ht="16.5">
+      <c r="B380" s="11" t="s">
         <v>659</v>
       </c>
-      <c r="C376" s="12" t="s">
+      <c r="C380" s="12" t="s">
         <v>532</v>
-      </c>
-    </row>
-    <row r="377" spans="2:3" s="8" customFormat="1" ht="30">
-      <c r="B377" s="11" t="s">
-        <v>661</v>
-      </c>
-      <c r="C377" s="12" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="378" spans="2:3" s="8" customFormat="1" ht="30">
-      <c r="B378" s="11" t="s">
-        <v>662</v>
-      </c>
-      <c r="C378" s="12" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="379" spans="2:3" s="8" customFormat="1" ht="30">
-      <c r="B379" s="11" t="s">
-        <v>663</v>
-      </c>
-      <c r="C379" s="12" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="380" spans="2:3" s="8" customFormat="1" ht="30">
-      <c r="B380" s="11" t="s">
-        <v>664</v>
-      </c>
-      <c r="C380" s="12" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="381" spans="2:3" s="8" customFormat="1" ht="30">
       <c r="B381" s="11" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C381" s="12" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="382" spans="2:3" s="8" customFormat="1" ht="30">
       <c r="B382" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="C382" s="12" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="383" spans="2:3" s="8" customFormat="1" ht="30">
+      <c r="B383" s="11" t="s">
+        <v>663</v>
+      </c>
+      <c r="C383" s="12" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="384" spans="2:3" s="8" customFormat="1" ht="30">
+      <c r="B384" s="11" t="s">
+        <v>664</v>
+      </c>
+      <c r="C384" s="12" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="385" spans="2:3" s="8" customFormat="1" ht="30">
+      <c r="B385" s="11" t="s">
+        <v>665</v>
+      </c>
+      <c r="C385" s="12" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="386" spans="2:3" s="8" customFormat="1" ht="30">
+      <c r="B386" s="11" t="s">
         <v>666</v>
       </c>
-      <c r="C382" s="12" t="s">
+      <c r="C386" s="12" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="383" spans="2:3" s="8" customFormat="1" ht="33">
-      <c r="B383" s="11" t="s">
+    <row r="387" spans="2:3" s="8" customFormat="1" ht="33">
+      <c r="B387" s="11" t="s">
         <v>667</v>
       </c>
-      <c r="C383" s="12" t="s">
+      <c r="C387" s="12" t="s">
         <v>644</v>
       </c>
     </row>
@@ -14768,7 +14808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>

--- a/data-raw/variable_explanation.xlsx
+++ b/data-raw/variable_explanation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="nflfastR2.0 Output pbp" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="701">
   <si>
     <t>play_id</t>
   </si>
@@ -2127,6 +2127,9 @@
   </si>
   <si>
     <t>Binary indicator if the play was a special teams play.</t>
+  </si>
+  <si>
+    <t>Numeric yards gained (or lost) by the possessing team, excluding yards gained via fumble recoveries and laterals.</t>
   </si>
 </sst>
 </file>
@@ -2610,8 +2613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D387"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B292" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D319" sqref="D319"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2970,11 +2973,11 @@
         <v>52</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>53</v>
+        <v>700</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
-        <v>#' \item{yards_gained}{Numeric yards gained (or lost) for the given play.}</v>
+        <v>#' \item{yards_gained}{Numeric yards gained (or lost) by the possessing team, excluding yards gained via fumble recoveries and laterals.}</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="16.5">
@@ -14808,8 +14811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D10"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -14828,7 +14831,7 @@
       </c>
     </row>
     <row r="3" spans="2:4" ht="16.5">
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>134</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -14864,7 +14867,7 @@
       </c>
     </row>
     <row r="6" spans="2:4" ht="16.5">
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -14876,7 +14879,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="16.5">
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>122</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -14888,7 +14891,7 @@
       </c>
     </row>
     <row r="8" spans="2:4" ht="16.5">
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -14900,7 +14903,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" ht="16.5">
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -14912,7 +14915,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="16.5">
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C10" s="2" t="s">
